--- a/aerospike_contour.xlsx
+++ b/aerospike_contour.xlsx
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04795411863457531</v>
+        <v>0.04535758035269063</v>
       </c>
     </row>
     <row r="3">
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003927966753724937</v>
+        <v>0.0004013512728041576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04699288560684734</v>
+        <v>0.04441118698082607</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +475,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0005731043352934293</v>
+        <v>0.0005850996489923222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04656004236013042</v>
+        <v>0.04398572285041943</v>
       </c>
     </row>
     <row r="5">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0007254617834146742</v>
+        <v>0.0007399505441215323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04620326513610309</v>
+        <v>0.04363552316697986</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0008671126241484167</v>
+        <v>0.0008835214370103732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04588099611796308</v>
+        <v>0.04331962670379918</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +508,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001004843730560857</v>
+        <v>0.001022729262425877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0455773920105349</v>
+        <v>0.04302241962933353</v>
       </c>
     </row>
     <row r="8">
@@ -519,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001142284024637718</v>
+        <v>0.001161257247269713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04528440646675656</v>
+        <v>0.04273597592786212</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001281742673895537</v>
+        <v>0.001301435778458365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04499727879080359</v>
+        <v>0.04245561010809632</v>
       </c>
     </row>
     <row r="10">
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001424874610589636</v>
+        <v>0.001444923452877854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04471290170968772</v>
+        <v>0.04217826782233655</v>
       </c>
     </row>
     <row r="11">
@@ -552,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001572974808010424</v>
+        <v>0.00159300823198137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04442910061685953</v>
+        <v>0.0419018150674454</v>
       </c>
     </row>
     <row r="12">
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001727126602706295</v>
+        <v>0.001746759218054876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04414427118240021</v>
+        <v>0.04162468073506141</v>
       </c>
     </row>
     <row r="13">
@@ -574,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001888283816276249</v>
+        <v>0.001907110666842722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04385717952681202</v>
+        <v>0.04134565947091727</v>
       </c>
     </row>
     <row r="14">
@@ -585,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.002057319600322744</v>
+        <v>0.002074911932418147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04356684412755715</v>
+        <v>0.04106379514347862</v>
       </c>
     </row>
     <row r="15">
@@ -596,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002235057197923385</v>
+        <v>0.002250958895838547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04327246215687591</v>
+        <v>0.04077830813818942</v>
       </c>
     </row>
     <row r="16">
@@ -607,10 +607,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002422290256019868</v>
+        <v>0.002436014692835697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04297336150737901</v>
+        <v>0.04048854799194331</v>
       </c>
     </row>
     <row r="17">
@@ -618,10 +618,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002619796792638328</v>
+        <v>0.002630823942130544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04266896842959152</v>
+        <v>0.04019396142965337</v>
       </c>
     </row>
     <row r="18">
@@ -629,10 +629,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002828349149616484</v>
+        <v>0.00283612286077451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04235878505910644</v>
+        <v>0.03989407015819182</v>
       </c>
     </row>
     <row r="19">
@@ -640,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00304872131633844</v>
+        <v>0.003052646685295274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04204237343151267</v>
+        <v>0.03958845506166491</v>
       </c>
     </row>
     <row r="20">
@@ -651,10 +651,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00328169448055282</v>
+        <v>0.003281135275375806</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04171934388306443</v>
+        <v>0.03927674472408598</v>
       </c>
     </row>
     <row r="21">
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003528061353047127</v>
+        <v>0.003522337460089303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04138934649444065</v>
+        <v>0.03895860695461385</v>
       </c>
     </row>
     <row r="22">
@@ -673,10 +673,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003788629625584444</v>
+        <v>0.003777014494843965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04105206469495973</v>
+        <v>0.03863374244435407</v>
       </c>
     </row>
     <row r="23">
@@ -684,10 +684,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004064224804373324</v>
+        <v>0.004045942877231883</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04070721043220592</v>
+        <v>0.03830187996746737</v>
       </c>
     </row>
     <row r="24">
@@ -695,10 +695,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.004355692586057849</v>
+        <v>0.004329916692869911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04035452049686612</v>
+        <v>0.03796277272171739</v>
       </c>
     </row>
     <row r="25">
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004663900893627731</v>
+        <v>0.004629749611529082</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03999375371432892</v>
+        <v>0.03761619552373445</v>
       </c>
     </row>
     <row r="26">
@@ -717,10 +717,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004989741656264809</v>
+        <v>0.004946276619651469</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03962468879656947</v>
+        <v>0.03726194265516893</v>
       </c>
     </row>
     <row r="27">
@@ -728,10 +728,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.005334132394221323</v>
+        <v>0.005280355551871689</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03924712270412845</v>
+        <v>0.03689982621145756</v>
       </c>
     </row>
     <row r="28">
@@ -739,10 +739,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00569801765380647</v>
+        <v>0.005632868467747961</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03886086940733239</v>
+        <v>0.03652967484375493</v>
       </c>
     </row>
     <row r="29">
@@ -750,10 +750,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006082370326180505</v>
+        <v>0.006004722908249924</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03846575896384501</v>
+        <v>0.03615133281216456</v>
       </c>
     </row>
     <row r="30">
@@ -761,10 +761,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.006488192875455948</v>
+        <v>0.006396853058147804</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03806163684978102</v>
+        <v>0.03576465928828707</v>
       </c>
     </row>
     <row r="31">
@@ -772,10 +772,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00691651849561546</v>
+        <v>0.006810220834308791</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03764836349632884</v>
+        <v>0.03536952785963091</v>
       </c>
     </row>
     <row r="32">
@@ -783,10 +783,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007368412211325904</v>
+        <v>0.007245816915366009</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03722581399471421</v>
+        <v>0.03496582619917815</v>
       </c>
     </row>
     <row r="33">
@@ -794,10 +794,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007844971934414479</v>
+        <v>0.007704661724828719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03679387794048095</v>
+        <v>0.03455345587143939</v>
       </c>
     </row>
     <row r="34">
@@ -805,10 +805,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00834732948526754</v>
+        <v>0.00818780637713421</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03635245939422391</v>
+        <v>0.03413233225241372</v>
       </c>
     </row>
     <row r="35">
@@ -816,10 +816,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008876651586500096</v>
+        <v>0.008696333594181049</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03590147694061208</v>
+        <v>0.03370238454551357</v>
       </c>
     </row>
     <row r="36">
@@ -827,10 +827,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.009434140834771102</v>
+        <v>0.009231358598372805</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0354408638311649</v>
+        <v>0.03326355587909416</v>
       </c>
     </row>
     <row r="37">
@@ -838,10 +838,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01002103665547448</v>
+        <v>0.009794029987027346</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03497056819906106</v>
+        <v>0.03281580347400968</v>
       </c>
     </row>
     <row r="38">
@@ -849,10 +849,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0106386162441397</v>
+        <v>0.01038553059208735</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03449055333646824</v>
+        <v>0.03235909887179871</v>
       </c>
     </row>
     <row r="39">
@@ -860,10 +860,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01128819549766849</v>
+        <v>0.01100707832834269</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03400079802662304</v>
+        <v>0.03189342821582259</v>
       </c>
     </row>
     <row r="40">
@@ -871,10 +871,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01197112993797203</v>
+        <v>0.01165992703279812</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03350129692427731</v>
+        <v>0.03141879257904905</v>
       </c>
     </row>
     <row r="41">
@@ -882,10 +882,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01268881563012416</v>
+        <v>0.0123453672973594</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03299206097923477</v>
+        <v>0.03093520833326898</v>
       </c>
     </row>
     <row r="42">
@@ -893,10 +893,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01344269009678403</v>
+        <v>0.01306472729663956</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0324731178985958</v>
+        <v>0.03044270755541591</v>
       </c>
     </row>
     <row r="43">
@@ -904,10 +904,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0142342332303494</v>
+        <v>0.01381937361238656</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03194451264405061</v>
+        <v>0.02994133846737296</v>
       </c>
     </row>
     <row r="44">
@@ -915,10 +915,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01506496820406329</v>
+        <v>0.01461071205578957</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03140630796115131</v>
+        <v>0.029431165906234</v>
       </c>
     </row>
     <row r="45">
@@ -926,10 +926,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01593646238310211</v>
+        <v>0.01544018848872057</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03085858493797564</v>
+        <v>0.02891227182246285</v>
       </c>
     </row>
     <row r="46">
@@ -937,10 +937,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01685032823651313</v>
+        <v>0.01630928964480391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03030144359099252</v>
+        <v>0.0283847558037869</v>
       </c>
     </row>
     <row r="47">
@@ -948,10 +948,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01780822425073684</v>
+        <v>0.0172195439510701</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02973500347626838</v>
+        <v>0.02784873562298634</v>
       </c>
     </row>
     <row r="48">
@@ -959,10 +959,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0188118558453399</v>
+        <v>0.01817252235083808</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02915940432442634</v>
+        <v>0.02730434780801007</v>
       </c>
     </row>
     <row r="49">
@@ -970,10 +970,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01986297629149316</v>
+        <v>0.01916983912837519</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02857480669799807</v>
+        <v>0.02675174823307473</v>
       </c>
     </row>
     <row r="50">
@@ -981,10 +981,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02096338763365242</v>
+        <v>0.02021315273580686</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02798139266999972</v>
+        <v>0.02619111272959156</v>
       </c>
     </row>
     <row r="51">
@@ -992,10 +992,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02211494161483555</v>
+        <v>0.02130416662268017</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02737936652272321</v>
+        <v>0.02562263771592555</v>
       </c>
     </row>
     <row r="52">
@@ -1003,10 +1003,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02331954060583534</v>
+        <v>0.02244463006853194</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02676895546587083</v>
+        <v>0.02504654084512446</v>
       </c>
     </row>
     <row r="53">
@@ -1014,10 +1014,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02457913853866172</v>
+        <v>0.02363633901876235</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02615041037327565</v>
+        <v>0.02446306166987007</v>
       </c>
     </row>
     <row r="54">
@@ -1025,10 +1025,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02589574184446791</v>
+        <v>0.02488113692407778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0255240065375483</v>
+        <v>0.02387246232399988</v>
       </c>
     </row>
     <row r="55">
@@ -1036,10 +1036,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02727141039618222</v>
+        <v>0.0261809155837304</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0248900444420744</v>
+        <v>0.0232750282200305</v>
       </c>
     </row>
     <row r="56">
@@ -1047,10 +1047,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02870825845603856</v>
+        <v>0.02753761599275346</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02424885054985841</v>
+        <v>0.02267106876218523</v>
       </c>
     </row>
     <row r="57">
@@ -1058,10 +1058,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03020845562817518</v>
+        <v>0.0289532291933677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02360077810877085</v>
+        <v>0.02206091807448769</v>
       </c>
     </row>
     <row r="58">
@@ -1069,10 +1069,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03177422781644926</v>
+        <v>0.03042979713071043</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0229462079728097</v>
+        <v>0.02144493574353714</v>
       </c>
     </row>
     <row r="59">
@@ -1080,10 +1080,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03340785818759808</v>
+        <v>0.03196941351302221</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02228554943903154</v>
+        <v>0.02082350757562597</v>
       </c>
     </row>
     <row r="60">
@@ -1091,10 +1091,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03511168813986172</v>
+        <v>0.03357422467640981</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02161924109984819</v>
+        <v>0.02019704636789824</v>
       </c>
     </row>
     <row r="61">
@@ -1102,10 +1102,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0368881182771681</v>
+        <v>0.0352464304542893</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02094775171041944</v>
+        <v>0.01956599269328336</v>
       </c>
     </row>
     <row r="62">
@@ -1113,10 +1113,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03873960938897051</v>
+        <v>0.03698828505160288</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02027158107090143</v>
+        <v>0.01893081569896813</v>
       </c>
     </row>
     <row r="63">
@@ -1124,10 +1124,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04066868343581753</v>
+        <v>0.03880209792389009</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01959126092333771</v>
+        <v>0.01829201391819599</v>
       </c>
     </row>
     <row r="64">
@@ -1135,10 +1135,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04267792454072525</v>
+        <v>0.04069023466128813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01890735586300193</v>
+        <v>0.01765011609520573</v>
       </c>
     </row>
     <row r="65">
@@ -1146,10 +1146,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.04476997998641555</v>
+        <v>0.04265511787752501</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01822046426402224</v>
+        <v>0.01700568202314088</v>
       </c>
     </row>
     <row r="66">
@@ -1157,10 +1157,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04694756121847651</v>
+        <v>0.04469922810396407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01753121921913402</v>
+        <v>0.01635930339477995</v>
       </c>
     </row>
     <row r="67">
@@ -1168,10 +1168,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04921344485449496</v>
+        <v>0.04682510468875183</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01684028949342432</v>
+        <v>0.01571160466595093</v>
       </c>
     </row>
     <row r="68">
@@ -1179,10 +1179,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05157047369920657</v>
+        <v>0.04903534670111569</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01614838049194441</v>
+        <v>0.01506324393150942</v>
       </c>
     </row>
     <row r="69">
@@ -1190,10 +1190,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05402155776570382</v>
+        <v>0.05133261384085266</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01545623524107976</v>
+        <v>0.01441491381377043</v>
       </c>
     </row>
     <row r="70">
@@ -1201,10 +1201,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.056569675302738</v>
+        <v>0.05371962735304778</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01476463538357649</v>
+        <v>0.01376734236329449</v>
       </c>
     </row>
     <row r="71">
@@ -1212,10 +1212,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05921787382814828</v>
+        <v>0.05619917094805479</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01407440218713412</v>
+        <v>0.01312129397193931</v>
       </c>
     </row>
     <row r="72">
@@ -1223,10 +1223,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0619692711684476</v>
+        <v>0.05877409172677019</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01338639756648271</v>
+        <v>0.01247757029809572</v>
       </c>
     </row>
     <row r="73">
@@ -1234,10 +1234,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06482705650459107</v>
+        <v>0.06144730111122854</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01270152511886947</v>
+        <v>0.01183701120403405</v>
       </c>
     </row>
     <row r="74">
@@ -1245,10 +1245,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.06779449142395243</v>
+        <v>0.06422177578054321</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01202073117288725</v>
+        <v>0.01120049570529513</v>
       </c>
     </row>
     <row r="75">
@@ -1256,10 +1256,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0708749109785296</v>
+        <v>0.06710055861221578</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01134500585058429</v>
+        <v>0.01056894293206442</v>
       </c>
     </row>
     <row r="76">
@@ -1267,10 +1267,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07407172474939924</v>
+        <v>0.07008675962883407</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01067538414279766</v>
+        <v>0.009943313102474682</v>
       </c>
     </row>
     <row r="77">
@@ -1278,10 +1278,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07738841791743921</v>
+        <v>0.07318355695017865</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01001294699766099</v>
+        <v>0.009324608507786155</v>
       </c>
     </row>
     <row r="78">
@@ -1289,10 +1289,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.080828552340334</v>
+        <v>0.0763941977507529</v>
       </c>
       <c r="C78" t="n">
-        <v>0.009358822422238393</v>
+        <v>0.008713874509398895</v>
       </c>
     </row>
     <row r="79">
@@ -1300,10 +1300,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08439576763588004</v>
+        <v>0.07972199922275439</v>
       </c>
       <c r="C79" t="n">
-        <v>0.008714186597243222</v>
+        <v>0.008112200547654748</v>
       </c>
     </row>
     <row r="80">
@@ -1311,10 +1311,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08809378227160292</v>
+        <v>0.08317034954449964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.008080265004800944</v>
+        <v>0.007520721162390424</v>
       </c>
     </row>
     <row r="81">
@@ -1322,10 +1322,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09192639466069978</v>
+        <v>0.08674270885431705</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007458333569222295</v>
+        <v>0.006940617025206909</v>
       </c>
     </row>
     <row r="82">
@@ -1333,10 +1333,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09589748426431895</v>
+        <v>0.09044261022991833</v>
       </c>
       <c r="C82" t="n">
-        <v>0.006849719810752155</v>
+        <v>0.006373115983421555</v>
       </c>
     </row>
     <row r="83">
@@ -1344,10 +1344,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1000110127001865</v>
+        <v>0.09427366067326069</v>
       </c>
       <c r="C83" t="n">
-        <v>0.006255804012264446</v>
+        <v>0.005819494115674935</v>
       </c>
     </row>
     <row r="84">
@@ -1355,10 +1355,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1042710248575896</v>
+        <v>0.09823954210090843</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005678020398876013</v>
+        <v>0.00528107679916278</v>
       </c>
     </row>
     <row r="85">
@@ -1366,10 +1366,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.108681650018726</v>
+        <v>0.1023440123399043</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00511785833045262</v>
+        <v>0.004759239788470252</v>
       </c>
     </row>
     <row r="86">
@@ -1377,10 +1377,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1132471029864279</v>
+        <v>0.1065909061291585</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004576863506984173</v>
+        <v>0.004255410305982602</v>
       </c>
     </row>
     <row r="87">
@@ -1388,10 +1388,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.117971685218267</v>
+        <v>0.1109841361263629</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00405663918680768</v>
+        <v>0.003771068143853284</v>
       </c>
     </row>
     <row r="88">
@@ -1399,10 +1399,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1228597859670484</v>
+        <v>0.1155276939204387</v>
       </c>
       <c r="C88" t="n">
-        <v>0.003558847417656735</v>
+        <v>0.003307746777507958</v>
       </c>
     </row>
     <row r="89">
@@ -1410,10 +1410,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1279158834276995</v>
+        <v>0.1202256510495227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.003085210280520204</v>
+        <v>0.002867034490666585</v>
       </c>
     </row>
     <row r="90">
@@ -1421,10 +1421,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1331445458905609</v>
+        <v>0.1250821600244993</v>
       </c>
       <c r="C90" t="n">
-        <v>0.002637511146291655</v>
+        <v>0.002450575511866593</v>
       </c>
     </row>
     <row r="91">
@@ -1432,10 +1432,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1385504329010826</v>
+        <v>0.1301014553580843</v>
       </c>
       <c r="C91" t="n">
-        <v>0.002217595945195191</v>
+        <v>0.002060071162471886</v>
       </c>
     </row>
     <row r="92">
@@ -1443,10 +1443,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1441382964259329</v>
+        <v>0.1352878545994646</v>
       </c>
       <c r="C92" t="n">
-        <v>0.001827374448970103</v>
+        <v>0.001697281016152026</v>
       </c>
     </row>
     <row r="93">
@@ -1454,10 +1454,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1499129820255237</v>
+        <v>0.1406457593744993</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00146882156580437</v>
+        <v>0.001364024069819195</v>
       </c>
     </row>
     <row r="94">
@@ -1465,10 +1465,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1558794300329567</v>
+        <v>0.1461796564314873</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001143978648000836</v>
+        <v>0.00106217992600921</v>
       </c>
     </row>
     <row r="95">
@@ -1476,10 +1476,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1620426767393946</v>
+        <v>0.1518941186925041</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0008549548123660204</v>
+        <v>0.0007936899866962657</v>
       </c>
     </row>
     <row r="96">
@@ -1487,10 +1487,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1684078555858617</v>
+        <v>0.1577938063103142</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0006039282733103384</v>
+        <v>0.0005605586585289237</v>
       </c>
     </row>
     <row r="97">
@@ -1498,10 +1498,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1749801983614764</v>
+        <v>0.1638834677308599</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0003931476886484335</v>
+        <v>0.0003648545694789734</v>
       </c>
     </row>
     <row r="98">
@@ -1509,10 +1509,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1817650364081201</v>
+        <v>0.1701679407613324</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0002249335180922954</v>
+        <v>0.0002087117968920184</v>
       </c>
     </row>
     <row r="99">
@@ -1520,10 +1520,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1887678018315447</v>
+        <v>0.1766521536438254</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0001016793944247088</v>
+        <v>9.433110693202179e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1531,10 +1531,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1959940287189223</v>
+        <v>0.1833411261345794</v>
       </c>
       <c r="C100" t="n">
-        <v>2.585350734817378e-05</v>
+        <v>2.398120541170496e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1542,7 +1542,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2034493543628396</v>
+        <v>0.1902399705888136</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003709117602048207</v>
+        <v>0.003688857682287462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04946490373318337</v>
+        <v>0.04691718094253047</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.5226230763097</v>
+        <v>173.3404079599544</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.83811750996118</v>
+        <v>67.08199683552262</v>
       </c>
     </row>
   </sheetData>
